--- a/Testes/Empresas/LEAO_PEREIRA.xlsx
+++ b/Testes/Empresas/LEAO_PEREIRA.xlsx
@@ -480,12 +480,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BRL</t>
+          <t>SGD</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>MYR</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -495,19 +495,19 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.20091617</t>
+          <t>3.513191178</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BRL</t>
+          <t>CAD</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>EUR</t>
+          <t>VES</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -517,7 +517,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.1856224311</t>
+          <t>26.66954317</t>
         </is>
       </c>
     </row>

--- a/Testes/Empresas/LEAO_PEREIRA.xlsx
+++ b/Testes/Empresas/LEAO_PEREIRA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,14 +458,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>BRL</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>USD</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
       <c r="C2" t="inlineStr">
         <is>
           <t>1.0</t>
@@ -473,19 +473,19 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.9234199999999999</t>
+          <t>0.2007911</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SGD</t>
+          <t>BRL</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MYR</t>
+          <t>EUR</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -495,29 +495,403 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.513191178</t>
+          <t>0.1856224311</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>BRL</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>JPY</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>30.332</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>BRL</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.1588960369</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>BRL</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>AUD</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.30749952210000003</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>BRL</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>CAD</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>VES</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>26.66954317</t>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.2727986</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>BRL</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>CHF</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.181917</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>BRL</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.42757</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>BRL</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>SEK</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.127355601</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>BRL</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>NZD</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.334214778</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>BRL</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>MXN</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.3350999999999997</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>BRL</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>NZD</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.334214778</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>BRL</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.27046919999999997</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>BRL</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>HKD</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.5708119999999999</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>BRL</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>NOK</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.1595263510000002</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>BRL</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>KRW</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>270.78085369999997</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>BRL</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>TRY</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.473872999999999</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>BRL</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>INR</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>16.73363912</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>BRL</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>RUB</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>18.5696629</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>BRL</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ZAR</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.790352</t>
         </is>
       </c>
     </row>

--- a/Testes/Empresas/LEAO_PEREIRA.xlsx
+++ b/Testes/Empresas/LEAO_PEREIRA.xlsx
@@ -495,7 +495,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.1856224311</t>
+          <t>0.1851</t>
         </is>
       </c>
     </row>
